--- a/MK60_PACK_V20A/SCH/MK60_PACK_V20A_MK60测试板_V1.0.xlsx
+++ b/MK60_PACK_V20A/SCH/MK60_PACK_V20A_MK60测试板_V1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="234">
   <si>
     <t>设计</t>
   </si>
@@ -308,9 +308,6 @@
   </si>
   <si>
     <t>C40,C41,C42,C43,C44,C45,</t>
-  </si>
-  <si>
-    <t>C46,C47,C48</t>
   </si>
   <si>
     <t>12pF_50V</t>
@@ -739,12 +736,54 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>C46,C47,C48</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>F_50V</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -799,6 +838,12 @@
     <font>
       <b/>
       <sz val="18"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -889,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,6 +969,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -939,38 +1017,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,11 +1295,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I1"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1269,95 +1317,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
+      <c r="A1" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1419,13 +1467,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="9">
-        <v>40</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>15</v>
@@ -1437,25 +1485,40 @@
         <v>16</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9">
+        <v>40</v>
+      </c>
       <c r="C10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+        <v>87</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1466,7 +1529,7 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1477,7 +1540,7 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1488,7 +1551,7 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1499,7 +1562,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1507,443 +1570,428 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="9">
-        <v>3</v>
-      </c>
-      <c r="B16" s="9">
-        <v>4</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>215</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="9">
+        <v>3</v>
+      </c>
+      <c r="B17" s="9">
         <v>4</v>
       </c>
-      <c r="B17" s="9">
-        <v>2</v>
-      </c>
       <c r="C17" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>103</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="9">
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="9">
         <v>1</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>110</v>
+        <v>22</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="9">
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="9"/>
+        <v>39</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="H24" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>51</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="9"/>
+        <v>116</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="9" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>122</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="9">
         <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>126</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>27</v>
@@ -1955,58 +2003,58 @@
         <v>16</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+      <c r="A34" s="9">
+        <v>20</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10</v>
+      </c>
       <c r="C34" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+        <v>127</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
-        <v>21</v>
-      </c>
-      <c r="B35" s="9">
-        <v>6</v>
-      </c>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>225</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="9">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>27</v>
@@ -2018,25 +2066,40 @@
         <v>16</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="9">
+        <v>22</v>
+      </c>
+      <c r="B37" s="9">
+        <v>25</v>
+      </c>
       <c r="C37" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+        <v>130</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -2047,7 +2110,7 @@
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -2058,7 +2121,7 @@
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -2066,43 +2129,28 @@
       <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
-        <v>23</v>
-      </c>
-      <c r="B41" s="9">
-        <v>4</v>
-      </c>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>225</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="9">
         <v>4</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>27</v>
@@ -2114,21 +2162,21 @@
         <v>16</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>27</v>
@@ -2140,21 +2188,21 @@
         <v>16</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>27</v>
@@ -2166,21 +2214,21 @@
         <v>16</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>27</v>
@@ -2192,21 +2240,21 @@
         <v>16</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>27</v>
@@ -2218,21 +2266,21 @@
         <v>16</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="E47" s="9" t="s">
         <v>27</v>
@@ -2244,21 +2292,21 @@
         <v>16</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>27</v>
@@ -2270,502 +2318,502 @@
         <v>16</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B51" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B53" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="9" t="s">
-        <v>227</v>
-      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="9">
         <v>1</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>59</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B55" s="9">
         <v>1</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B56" s="9">
         <v>1</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B57" s="9">
         <v>1</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="9">
         <v>1</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B59" s="9">
         <v>1</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="9">
         <v>1</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="9">
         <v>1</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G61" s="9"/>
+        <v>172</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="9">
         <v>1</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>228</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="9">
         <v>1</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" s="9">
         <v>1</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B65" s="9">
         <v>1</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="9">
         <v>1</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B67" s="9">
         <v>1</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>195</v>
+        <v>32</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B68" s="9">
         <v>1</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>228</v>
@@ -2773,127 +2821,142 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="9">
         <v>1</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>82</v>
+        <v>197</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B70" s="9">
         <v>1</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B71" s="9">
         <v>1</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>64</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" s="9">
         <v>1</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>64</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="A73" s="9">
+        <v>54</v>
+      </c>
+      <c r="B73" s="9">
+        <v>1</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75"/>
@@ -3379,19 +3442,30 @@
       <c r="H118"/>
       <c r="I118"/>
     </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:I6"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:I5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
